--- a/tire_brands.xlsx
+++ b/tire_brands.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779889A5-AF0C-4BA3-AAA9-5081F8818DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B2FD0-147B-4E0F-93D2-FDEE85C74AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,21 +122,12 @@
     <t>Yokohama</t>
   </si>
   <si>
-    <t>BF GOODRICH</t>
-  </si>
-  <si>
-    <t>CooperTires</t>
-  </si>
-  <si>
     <t>Double Coin</t>
   </si>
   <si>
     <t>Federal</t>
   </si>
   <si>
-    <t>JK</t>
-  </si>
-  <si>
     <t>Lassa</t>
   </si>
   <si>
@@ -133,18 +137,12 @@
     <t>Otani</t>
   </si>
   <si>
-    <t>PETLAS</t>
-  </si>
-  <si>
     <t>Roadx</t>
   </si>
   <si>
     <t>Roadstone</t>
   </si>
   <si>
-    <t>SAILUN</t>
-  </si>
-  <si>
     <t>Sava</t>
   </si>
   <si>
@@ -154,12 +152,6 @@
     <t>Tarazano</t>
   </si>
   <si>
-    <t>TRAZANO</t>
-  </si>
-  <si>
-    <t>Vredestein</t>
-  </si>
-  <si>
     <t>Zeetex</t>
   </si>
   <si>
@@ -175,12 +167,6 @@
     <t>Annaite</t>
   </si>
   <si>
-    <t>APLUS</t>
-  </si>
-  <si>
-    <t>APTANY</t>
-  </si>
-  <si>
     <t>Arivo</t>
   </si>
   <si>
@@ -199,325 +185,352 @@
     <t>Bearway</t>
   </si>
   <si>
+    <t>Blackarrow</t>
+  </si>
+  <si>
+    <t>Blacklion</t>
+  </si>
+  <si>
+    <t>Centara</t>
+  </si>
+  <si>
+    <t>Charmo</t>
+  </si>
+  <si>
+    <t>Comoro</t>
+  </si>
+  <si>
+    <t>Davanti</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Deestone</t>
+  </si>
+  <si>
+    <t>Doublestar</t>
+  </si>
+  <si>
+    <t>Durun</t>
+  </si>
+  <si>
+    <t>Fortune</t>
+  </si>
+  <si>
+    <t>Frztrac</t>
+  </si>
+  <si>
+    <t>Galaxia</t>
+  </si>
+  <si>
+    <t>Getwin</t>
+  </si>
+  <si>
+    <t>Goodride</t>
+  </si>
+  <si>
+    <t>Gopro</t>
+  </si>
+  <si>
+    <t>Greenmax</t>
+  </si>
+  <si>
+    <t>Greentrac</t>
+  </si>
+  <si>
+    <t>Groundspeed</t>
+  </si>
+  <si>
+    <t>Habilead</t>
+  </si>
+  <si>
+    <t>Headway</t>
+  </si>
+  <si>
+    <t>Honour</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Ilink</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Joyroad</t>
+  </si>
+  <si>
+    <t>Kenda</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Landsail</t>
+  </si>
+  <si>
+    <t>Landspider</t>
+  </si>
+  <si>
+    <t>Laufenn</t>
+  </si>
+  <si>
+    <t>Lexani</t>
+  </si>
+  <si>
+    <t>Lexxis</t>
+  </si>
+  <si>
+    <t>Longway</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Marshal</t>
+  </si>
+  <si>
+    <t>Massimo</t>
+  </si>
+  <si>
+    <t>Maxtrek</t>
+  </si>
+  <si>
+    <t>Mileking</t>
+  </si>
+  <si>
+    <t>Miletrip</t>
+  </si>
+  <si>
+    <t>Minnell</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Mosimo</t>
+  </si>
+  <si>
+    <t>Neupar</t>
+  </si>
+  <si>
+    <t>Opals</t>
+  </si>
+  <si>
+    <t>Pearly</t>
+  </si>
+  <si>
+    <t>Prinx</t>
+  </si>
+  <si>
+    <t>Road March</t>
+  </si>
+  <si>
+    <t>Roadboss</t>
+  </si>
+  <si>
+    <t>Roadcruza</t>
+  </si>
+  <si>
+    <t>Roadking</t>
+  </si>
+  <si>
+    <t>Roadwing</t>
+  </si>
+  <si>
+    <t>Rotalla</t>
+  </si>
+  <si>
+    <t>Rovelo</t>
+  </si>
+  <si>
+    <t>Rydanz</t>
+  </si>
+  <si>
+    <t>Seam</t>
+  </si>
+  <si>
+    <t>Shaheen</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>Teraflex</t>
+  </si>
+  <si>
+    <t>Tesche</t>
+  </si>
+  <si>
+    <t>Thunderer</t>
+  </si>
+  <si>
+    <t>Transmate</t>
+  </si>
+  <si>
+    <t>Vitour</t>
+  </si>
+  <si>
+    <t>Wanli</t>
+  </si>
+  <si>
+    <t>West Lake</t>
+  </si>
+  <si>
+    <t>Windforce</t>
+  </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>Zetum</t>
+  </si>
+  <si>
+    <t>Zmax</t>
+  </si>
+  <si>
     <t>Berlin</t>
   </si>
   <si>
-    <t>BLACK ARROW</t>
-  </si>
-  <si>
-    <t>Blackarrow</t>
-  </si>
-  <si>
-    <t>Blacklion</t>
-  </si>
-  <si>
-    <t>BOTO</t>
-  </si>
-  <si>
-    <t>Centara</t>
-  </si>
-  <si>
-    <t>CHARMHOO</t>
-  </si>
-  <si>
-    <t>Charmo</t>
-  </si>
-  <si>
-    <t>Comoro</t>
-  </si>
-  <si>
-    <t>compasal</t>
-  </si>
-  <si>
-    <t>Davanti</t>
-  </si>
-  <si>
-    <t>Dayton</t>
-  </si>
-  <si>
-    <t>Deestone</t>
-  </si>
-  <si>
-    <t>Doublestar</t>
-  </si>
-  <si>
-    <t>Durun</t>
-  </si>
-  <si>
-    <t>ETERNITY</t>
-  </si>
-  <si>
-    <t>Fortune</t>
-  </si>
-  <si>
-    <t>Frztrac</t>
-  </si>
-  <si>
-    <t>Galaxia</t>
-  </si>
-  <si>
-    <t>Getwin</t>
-  </si>
-  <si>
-    <t>GoForm</t>
-  </si>
-  <si>
-    <t>Goodride</t>
-  </si>
-  <si>
-    <t>Gopro</t>
-  </si>
-  <si>
-    <t>GREENLANDER</t>
-  </si>
-  <si>
-    <t>Greenmax</t>
-  </si>
-  <si>
-    <t>Greentrac</t>
-  </si>
-  <si>
-    <t>GRIPMAX</t>
-  </si>
-  <si>
-    <t>Groundspeed</t>
-  </si>
-  <si>
-    <t>Habilead</t>
-  </si>
-  <si>
-    <t>Headway</t>
-  </si>
-  <si>
-    <t>HEDOVIC</t>
-  </si>
-  <si>
-    <t>HILLO</t>
-  </si>
-  <si>
-    <t>HILO</t>
-  </si>
-  <si>
-    <t>Honour</t>
-  </si>
-  <si>
-    <t>Horizon</t>
-  </si>
-  <si>
-    <t>Ilink</t>
-  </si>
-  <si>
-    <t>Infinity</t>
-  </si>
-  <si>
-    <t>Joyroad</t>
-  </si>
-  <si>
-    <t>KAPSEN</t>
-  </si>
-  <si>
-    <t>Kenda</t>
-  </si>
-  <si>
-    <t>KINFOREST</t>
-  </si>
-  <si>
-    <t>LALBIGATOR</t>
-  </si>
-  <si>
-    <t>Lancaster</t>
-  </si>
-  <si>
-    <t>Landsail</t>
-  </si>
-  <si>
-    <t>Landspider</t>
-  </si>
-  <si>
-    <t>LANVIGATOR</t>
-  </si>
-  <si>
-    <t>Laufenn</t>
-  </si>
-  <si>
-    <t>LEAO</t>
-  </si>
-  <si>
-    <t>Lexani</t>
-  </si>
-  <si>
-    <t>Lexxis</t>
-  </si>
-  <si>
-    <t>Longway</t>
-  </si>
-  <si>
-    <t>LUISTONE</t>
-  </si>
-  <si>
-    <t>Malone</t>
-  </si>
-  <si>
-    <t>Marshal</t>
-  </si>
-  <si>
-    <t>Massimo</t>
-  </si>
-  <si>
-    <t>Maxtrek</t>
-  </si>
-  <si>
-    <t>Mileking</t>
-  </si>
-  <si>
-    <t>Miletrip</t>
-  </si>
-  <si>
-    <t>Minnell</t>
-  </si>
-  <si>
-    <t>Montreal</t>
-  </si>
-  <si>
-    <t>Mosimo</t>
-  </si>
-  <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>NANKANG</t>
-  </si>
-  <si>
-    <t>NAVIGATOR</t>
-  </si>
-  <si>
-    <t>Neupar</t>
-  </si>
-  <si>
-    <t>Opals</t>
-  </si>
-  <si>
-    <t>PALLY KING</t>
-  </si>
-  <si>
-    <t>PALLYKING</t>
-  </si>
-  <si>
-    <t>Pearly</t>
-  </si>
-  <si>
-    <t>Prinx</t>
-  </si>
-  <si>
-    <t>RIKEN</t>
-  </si>
-  <si>
-    <t>Road March</t>
-  </si>
-  <si>
-    <t>Roadboss</t>
-  </si>
-  <si>
-    <t>Roadcruza</t>
-  </si>
-  <si>
-    <t>Roadking</t>
-  </si>
-  <si>
-    <t>ROADMARCH</t>
-  </si>
-  <si>
-    <t>Roadwing</t>
-  </si>
-  <si>
-    <t>Rotalla</t>
-  </si>
-  <si>
-    <t>Rovelo</t>
-  </si>
-  <si>
-    <t>ROYAL BLAK</t>
-  </si>
-  <si>
-    <t>Rydanz</t>
-  </si>
-  <si>
-    <t>SAILWIN</t>
-  </si>
-  <si>
-    <t>Seam</t>
-  </si>
-  <si>
-    <t>Shaheen</t>
-  </si>
-  <si>
-    <t>Sonar</t>
-  </si>
-  <si>
-    <t>SPORTRAK</t>
-  </si>
-  <si>
-    <t>SunFull</t>
-  </si>
-  <si>
-    <t>SUNNY</t>
-  </si>
-  <si>
-    <t>TBB</t>
-  </si>
-  <si>
-    <t>Teraflex</t>
-  </si>
-  <si>
-    <t>Tesche</t>
-  </si>
-  <si>
-    <t>Thunderer</t>
-  </si>
-  <si>
-    <t>TRACKMAX</t>
-  </si>
-  <si>
-    <t>TRACMAX</t>
-  </si>
-  <si>
-    <t>Transmate</t>
-  </si>
-  <si>
-    <t>Vitour</t>
-  </si>
-  <si>
-    <t>VIZZONI</t>
-  </si>
-  <si>
-    <t>Wanli</t>
-  </si>
-  <si>
-    <t>WANLY</t>
-  </si>
-  <si>
-    <t>West Lake</t>
-  </si>
-  <si>
-    <t>WINDA</t>
-  </si>
-  <si>
-    <t>Windforce</t>
-  </si>
-  <si>
-    <t>WINRUN</t>
-  </si>
-  <si>
-    <t>Zeta</t>
-  </si>
-  <si>
-    <t>Zetum</t>
-  </si>
-  <si>
-    <t>ZEXTOUR</t>
-  </si>
-  <si>
-    <t>Zmax</t>
+    <t>Bf Goodrich</t>
+  </si>
+  <si>
+    <t>Coopertires</t>
+  </si>
+  <si>
+    <t>Jk</t>
+  </si>
+  <si>
+    <t>Petlas</t>
+  </si>
+  <si>
+    <t>Sailun</t>
+  </si>
+  <si>
+    <t>Trazano</t>
+  </si>
+  <si>
+    <t>Aplus</t>
+  </si>
+  <si>
+    <t>Aptany</t>
+  </si>
+  <si>
+    <t>Black Arrow</t>
+  </si>
+  <si>
+    <t>Boto</t>
+  </si>
+  <si>
+    <t>Charmhoo</t>
+  </si>
+  <si>
+    <t>Compasal</t>
+  </si>
+  <si>
+    <t>Eternity</t>
+  </si>
+  <si>
+    <t>Goform</t>
+  </si>
+  <si>
+    <t>Greenlander</t>
+  </si>
+  <si>
+    <t>Gripmax</t>
+  </si>
+  <si>
+    <t>Hedovic</t>
+  </si>
+  <si>
+    <t>Hillo</t>
+  </si>
+  <si>
+    <t>Hilo</t>
+  </si>
+  <si>
+    <t>Kapsen</t>
+  </si>
+  <si>
+    <t>Kinforest</t>
+  </si>
+  <si>
+    <t>Lalbigator</t>
+  </si>
+  <si>
+    <t>Lanvigator</t>
+  </si>
+  <si>
+    <t>Leao</t>
+  </si>
+  <si>
+    <t>Luistone</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Nankang</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Pally King</t>
+  </si>
+  <si>
+    <t>Pallyking</t>
+  </si>
+  <si>
+    <t>Riken</t>
+  </si>
+  <si>
+    <t>Roadmarch</t>
+  </si>
+  <si>
+    <t>Royal Blak</t>
+  </si>
+  <si>
+    <t>Sailwin</t>
+  </si>
+  <si>
+    <t>Sportrak</t>
+  </si>
+  <si>
+    <t>Sunfull</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Tbb</t>
+  </si>
+  <si>
+    <t>Trackmax</t>
+  </si>
+  <si>
+    <t>Tracmax</t>
+  </si>
+  <si>
+    <t>Vizzoni</t>
+  </si>
+  <si>
+    <t>Wanly</t>
+  </si>
+  <si>
+    <t>Winda</t>
+  </si>
+  <si>
+    <t>Winrun</t>
+  </si>
+  <si>
+    <t>Zextour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vredestein </t>
   </si>
 </sst>
 </file>
@@ -564,9 +577,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -585,7 +596,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -596,6 +651,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CED33F2-6CFC-4F00-8132-2FDEBEC43E1D}" name="Table1" displayName="Table1" ref="A1:B161" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:B161" xr:uid="{4CED33F2-6CFC-4F00-8132-2FDEBEC43E1D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FA07CCBF-AC76-4EFA-AD54-0A9DD4AFF994}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{50A433E8-EDE4-4A44-8144-BD3687F41110}" name="Brand"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,12 +954,12 @@
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1094,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1310,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1350,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1374,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1462,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1494,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1534,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1566,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1590,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1598,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1606,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1614,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1622,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1630,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1638,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1654,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1662,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1710,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1718,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1742,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1798,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1806,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1814,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1830,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1854,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1862,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1870,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1878,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1886,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1894,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1902,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1918,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1926,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1934,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1942,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1950,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1958,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1966,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1974,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1982,7 +2048,7 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1990,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1998,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2006,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2014,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2022,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2030,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2038,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2046,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2054,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2062,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2070,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2078,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2086,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2094,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2102,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2110,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2126,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2134,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2142,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2150,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2158,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2166,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2182,10 +2248,13 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>